--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1172,8 +1172,8 @@
       <c r="F2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>61</v>
+      <c r="G2" s="9">
+        <v>12</v>
       </c>
       <c r="H2" s="9">
         <v>37</v>
@@ -1203,8 +1203,8 @@
       <c r="F3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>61</v>
+      <c r="G3" s="9">
+        <v>12</v>
       </c>
       <c r="H3" s="9">
         <v>37</v>
@@ -1234,8 +1234,8 @@
       <c r="F4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>61</v>
+      <c r="G4" s="9">
+        <v>12</v>
       </c>
       <c r="H4" s="9">
         <v>37</v>

--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,133 +80,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BOKU-Vienna</t>
+  </si>
+  <si>
+    <t>help people dealing with sepsis caused by Lipopolysaccharides (LPS) from gram-negative bacteria lysis.</t>
+  </si>
+  <si>
+    <t>BBa_J23101</t>
+  </si>
+  <si>
+    <t>BBa_J231059</t>
+  </si>
+  <si>
+    <t>BBa_B1001</t>
+  </si>
+  <si>
+    <t>BBa_J06504</t>
+  </si>
+  <si>
+    <t>Promoter</t>
+  </si>
+  <si>
+    <t>Reporter mCherry</t>
+  </si>
+  <si>
+    <t>BBa_R0051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_R0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_E1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_R0015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terminator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_R0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J23101</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_E1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_R0015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_R0051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pSB1C3</t>
+  </si>
+  <si>
+    <t>D0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seokjin-oh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreatBay_China</t>
+  </si>
+  <si>
+    <t>microbial Compartmentalization AssisTed Nepetalactol Ingredient Production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_J23105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_J23119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_J23101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pUC20</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J23119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J23101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J231059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_B1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J06504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoo-bh</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incubhr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incubtemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:BOKU-Vienna/Results</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:Tongji_China/Results</t>
+  </si>
+  <si>
+    <t>http://2018.igem.org/Team:GreatBay_China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://2018.igem.org/wiki/images/f/fd/T--GreatBay_China--notebook_nepetalactol.pdf</t>
+  </si>
+  <si>
+    <t>strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2018"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://2020.igem.org/Team:Tongji_China</t>
-  </si>
-  <si>
-    <t>BOKU-Vienna</t>
-  </si>
-  <si>
-    <t>help people dealing with sepsis caused by Lipopolysaccharides (LPS) from gram-negative bacteria lysis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://2020.igem.org/Team:BOKU-Vienna</t>
-  </si>
-  <si>
-    <t>BBa_J23101</t>
-  </si>
-  <si>
-    <t>BBa_J231059</t>
-  </si>
-  <si>
-    <t>BBa_B1001</t>
-  </si>
-  <si>
-    <t>BBa_J06504</t>
-  </si>
-  <si>
-    <t>Promoter</t>
-  </si>
-  <si>
-    <t>Reporter mCherry</t>
-  </si>
-  <si>
-    <t>BBa_R0051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBa_R0034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBa_E1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBa_R0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terminator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_R0034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_J23101</t>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_E1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_R0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_R0051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pSB1C3</t>
-  </si>
-  <si>
-    <t>D0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seokjin-oh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreatBay_China</t>
-  </si>
-  <si>
-    <t>microbial Compartmentalization AssisTed Nepetalactol Ingredient Production</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBa_J23105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBa_J23119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBa_J23101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pUC20</t>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_J23119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_J23101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_J231059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_B1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://parts.igem.org/Part:BBa_J06504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>"2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3"</t>
+  </si>
+  <si>
+    <t>"3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4"</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>"6"</t>
+  </si>
+  <si>
+    <t>"7"</t>
+  </si>
+  <si>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t>"9"</t>
+  </si>
+  <si>
+    <t>"10"</t>
+  </si>
+  <si>
+    <t>"11"</t>
+  </si>
+  <si>
+    <t>concunit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,83 +346,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yoo-bh</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valunit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incubhr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incubtemp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fluorescence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://2020.igem.org/Team:BOKU-Vienna/Results</t>
-  </si>
-  <si>
-    <t>Overnight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://2020.igem.org/Team:Tongji_China/Results</t>
-  </si>
-  <si>
-    <t>http://2018.igem.org/Team:GreatBay_China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://2018.igem.org/wiki/images/f/fd/T--GreatBay_China--notebook_nepetalactol.pdf</t>
-  </si>
-  <si>
-    <t>strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37℃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +412,13 @@
       <color rgb="FF000000"/>
       <name val="Delius"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -680,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -710,8 +796,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -719,51 +805,53 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>2020</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2020</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>2018</v>
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -773,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -814,256 +902,289 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25">
-      <c r="B8" t="s">
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.25">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18">
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18">
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18">
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1114,356 +1235,409 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="9">
         <v>198.9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="9">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="9">
+        <v>47</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="9">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="9">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="9">
+        <v>950</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9">
-        <v>37</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1350</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="9">
+        <v>8</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="9">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="9">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="9">
+        <v>19</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="9">
-        <v>47</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9">
-        <v>37</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="9">
+        <v>19</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9">
-        <v>12</v>
-      </c>
-      <c r="H4" s="9">
-        <v>37</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="9">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="9">
+        <v>19</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="9">
-        <v>950</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="9">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1350</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9">
-        <v>8</v>
-      </c>
-      <c r="H6" s="9">
-        <v>37</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="9">
-        <v>8</v>
-      </c>
-      <c r="H7" s="9">
-        <v>37</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="9">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="9">
-        <v>8</v>
-      </c>
-      <c r="H8" s="9">
-        <v>37</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="9">
-        <v>19</v>
-      </c>
-      <c r="H9" s="9">
-        <v>30</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="9">
-        <v>19</v>
-      </c>
-      <c r="H10" s="9">
-        <v>30</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="9">
-        <v>100000</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="9">
-        <v>19</v>
-      </c>
-      <c r="H11" s="9">
-        <v>30</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1491,34 +1665,34 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -1532,31 +1706,31 @@
     <row r="2" spans="1:18">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="9">
         <v>198.9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="9">
         <v>37</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1570,31 +1744,31 @@
     <row r="3" spans="1:18">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="9">
         <v>47</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="9">
         <v>37</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -1608,31 +1782,31 @@
     <row r="4" spans="1:18">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="9">
         <v>37</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -1646,19 +1820,19 @@
     <row r="5" spans="1:18">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="9">
         <v>950</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="9">
         <v>8</v>
@@ -1667,10 +1841,10 @@
         <v>37</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1684,19 +1858,19 @@
     <row r="6" spans="1:18">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="9">
         <v>1350</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="9">
         <v>8</v>
@@ -1705,10 +1879,10 @@
         <v>37</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1722,19 +1896,19 @@
     <row r="7" spans="1:18">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="9">
         <v>8</v>
@@ -1743,10 +1917,10 @@
         <v>37</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1760,19 +1934,19 @@
     <row r="8" spans="1:18">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="9">
         <v>20</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="9">
         <v>8</v>
@@ -1781,10 +1955,10 @@
         <v>37</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1798,19 +1972,19 @@
     <row r="9" spans="1:18">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="9">
         <v>1500000</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="9">
         <v>19</v>
@@ -1819,10 +1993,10 @@
         <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1836,19 +2010,19 @@
     <row r="10" spans="1:18">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="9">
         <v>1000000</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="9">
         <v>19</v>
@@ -1857,10 +2031,10 @@
         <v>30</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1874,19 +2048,19 @@
     <row r="11" spans="1:18">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="9">
         <v>100000</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="9">
         <v>19</v>
@@ -1895,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
